--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2130.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2130.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>1.993319019780701</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2130.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2130.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.7419204711914062</v>
       </c>
       <c r="B1">
-        <v>1.993319019780701</v>
+        <v>1.856776118278503</v>
       </c>
       <c r="C1">
-        <v>1.10191934390798</v>
+        <v>4.718027591705322</v>
       </c>
       <c r="D1">
-        <v>0.8813897012639416</v>
+        <v>1.915159583091736</v>
       </c>
       <c r="E1">
-        <v>0.8280913713299421</v>
+        <v>1.276799082756042</v>
       </c>
     </row>
   </sheetData>
